--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>1.673693613552889</v>
+        <v>0.6607488825495555</v>
       </c>
       <c r="R2">
-        <v>15.063242521976</v>
+        <v>5.946739942946</v>
       </c>
       <c r="S2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="T2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
         <v>29.69705672848322</v>
@@ -632,10 +632,10 @@
         <v>267.273510556349</v>
       </c>
       <c r="S3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="T3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>14.08578855785322</v>
+        <v>14.92721381376622</v>
       </c>
       <c r="R4">
-        <v>126.772097020679</v>
+        <v>134.344924323896</v>
       </c>
       <c r="S4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="T4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
     </row>
   </sheetData>
